--- a/myapp/files/9_MethodComparePercent/Scenario 341.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 341.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>5651</v>
+        <v>5991</v>
       </c>
       <c r="F2" t="n">
-        <v>5.20239728234352</v>
+        <v>1.25739567351787</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>4.54545454545455</v>
+        <v>1.29310344827586</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>8175</v>
+        <v>14450</v>
       </c>
       <c r="F3" t="n">
-        <v>7.5260303987185</v>
+        <v>3.03277707934123</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.54545454545455</v>
+        <v>2.58620689655172</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>8113</v>
+        <v>13782</v>
       </c>
       <c r="F4" t="n">
-        <v>7.46895224768235</v>
+        <v>2.8925767271613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>4.54545454545455</v>
+        <v>3.87931034482759</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>15822</v>
+        <v>35319</v>
       </c>
       <c r="F5" t="n">
-        <v>14.5659758982904</v>
+        <v>7.41277880036351</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>9.09090909090909</v>
+        <v>6.03448275862069</v>
       </c>
       <c r="K5" t="n">
         <v>6</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>11492</v>
+        <v>32164</v>
       </c>
       <c r="F6" t="n">
-        <v>10.5797114791527</v>
+        <v>6.75060498131012</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -745,10 +745,10 @@
         <v>6.55737704918033</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>9.09090909090909</v>
+        <v>4.74137931034483</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.121730844707122</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.431034482758621</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>7401</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.55332755461622</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.1551724137931</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>4814</v>
+        <v>18047</v>
       </c>
       <c r="F9" t="n">
-        <v>4.43184224335546</v>
+        <v>3.78771819729212</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>3.27868852459016</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>4.54545454545455</v>
+        <v>6.46551724137931</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>3702</v>
+        <v>35540</v>
       </c>
       <c r="F10" t="n">
-        <v>3.40811798606188</v>
+        <v>7.45916244981226</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -897,10 +897,10 @@
         <v>9.83606557377049</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>4.54545454545455</v>
+        <v>9.05172413793103</v>
       </c>
       <c r="K10" t="n">
         <v>8</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>5976</v>
+        <v>31240</v>
       </c>
       <c r="F11" t="n">
-        <v>5.50159726761367</v>
+        <v>6.55667515284567</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -935,10 +935,10 @@
         <v>4.91803278688525</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>6.81818181818182</v>
+        <v>7.32758620689655</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2340</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.491120994163216</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.431034482758621</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16784</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.52263878890402</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.58620689655172</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>188</v>
+        <v>42958</v>
       </c>
       <c r="F14" t="n">
-        <v>0.173075683787043</v>
+        <v>9.016057977463</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -1049,10 +1049,10 @@
         <v>6.55737704918033</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J14" t="n">
-        <v>4.54545454545455</v>
+        <v>7.32758620689655</v>
       </c>
       <c r="K14" t="n">
         <v>7</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>5751</v>
+        <v>49375</v>
       </c>
       <c r="F15" t="n">
-        <v>5.2944588162728</v>
+        <v>10.3628628576106</v>
       </c>
       <c r="G15" t="n">
         <v>9</v>
@@ -1087,16 +1087,16 @@
         <v>14.7540983606557</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
-        <v>2.27272727272727</v>
+        <v>8.62068965517241</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>4.91803278688525</v>
+        <v>6.55737704918033</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>6926</v>
+        <v>37082</v>
       </c>
       <c r="F16" t="n">
-        <v>6.37618183994182</v>
+        <v>7.78279859211982</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
@@ -1125,16 +1125,16 @@
         <v>16.3934426229508</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>6.81818181818182</v>
+        <v>6.46551724137931</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
-        <v>13.1147540983607</v>
+        <v>11.4754098360656</v>
       </c>
     </row>
     <row r="17">
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4869</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.02190945323961</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>2964</v>
+        <v>12471</v>
       </c>
       <c r="F18" t="n">
-        <v>2.72870386566381</v>
+        <v>2.61742304196986</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.27272727272727</v>
+        <v>3.01724137931034</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>4847</v>
+        <v>19227</v>
       </c>
       <c r="F19" t="n">
-        <v>4.46222254955212</v>
+        <v>4.03537750204109</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
@@ -1239,10 +1239,10 @@
         <v>8.19672131147541</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>4.54545454545455</v>
+        <v>5.60344827586207</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>5471</v>
+        <v>19318</v>
       </c>
       <c r="F20" t="n">
-        <v>5.03668652127082</v>
+        <v>4.0544766518141</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1277,10 +1277,10 @@
         <v>6.55737704918033</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
-        <v>6.81818181818182</v>
+        <v>6.89655172413793</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>6252</v>
+        <v>22585</v>
       </c>
       <c r="F21" t="n">
-        <v>5.75568710125848</v>
+        <v>4.74015711674198</v>
       </c>
       <c r="G21" t="n">
         <v>5</v>
@@ -1315,10 +1315,10 @@
         <v>8.19672131147541</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>9.09090909090909</v>
+        <v>5.17241379310345</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3362</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.705619137767834</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>624</v>
+        <v>10101</v>
       </c>
       <c r="F23" t="n">
-        <v>0.574463971718697</v>
+        <v>2.12000562480455</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.27272727272727</v>
+        <v>1.29310344827586</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1872</v>
+        <v>11559</v>
       </c>
       <c r="F24" t="n">
-        <v>1.72339191515609</v>
+        <v>2.42601178270624</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.27272727272727</v>
+        <v>1.72413793103448</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>2535</v>
+        <v>12844</v>
       </c>
       <c r="F25" t="n">
-        <v>2.33375988510721</v>
+        <v>2.69570856796254</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>4.91803278688525</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>6.81818181818182</v>
+        <v>3.01724137931034</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>7448</v>
+        <v>17072</v>
       </c>
       <c r="F26" t="n">
-        <v>6.85674304705265</v>
+        <v>3.58308444972411</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>4.54545454545455</v>
+        <v>2.1551724137931</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>6.55737704918033</v>
+        <v>4.91803278688525</v>
       </c>
     </row>
   </sheetData>
